--- a/notebook/results/Model-v1-Results.xlsx
+++ b/notebook/results/Model-v1-Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HAW\Bachelorarbeit\TranslationT5\notebook\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE4F216-B281-4361-A58C-728F21DD7D71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{564FE108-9358-4C24-8304-A08793979589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4392" yWindow="3456" windowWidth="17640" windowHeight="8904" xr2:uid="{5C25365D-9598-4416-8DEF-A2E75805290F}"/>
+    <workbookView xWindow="4272" yWindow="276" windowWidth="17640" windowHeight="8904" xr2:uid="{5C25365D-9598-4416-8DEF-A2E75805290F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -99,13 +99,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -123,11 +140,11 @@
   <autoFilter ref="A1:F5" xr:uid="{3097FC38-72C4-4A6B-9C80-5483D098EB6E}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{E2818F8C-4597-484B-9D19-1491B90AA33A}" name="Decoding Method"/>
-    <tableColumn id="2" xr3:uid="{789937A5-F7BF-456C-BE1D-7E568A5D9F46}" name="F1-Score"/>
-    <tableColumn id="3" xr3:uid="{2E15D060-2087-4AFB-BE53-A0B75B5341E3}" name="Bleu 1 Translation"/>
-    <tableColumn id="4" xr3:uid="{13B94D85-B122-42DE-961E-FAB862A3218E}" name="Bleu 3 Translations"/>
-    <tableColumn id="5" xr3:uid="{E4AE71E0-F573-41F9-9ABB-8DEAACAC1CEB}" name="Bleu 1 WMT"/>
-    <tableColumn id="6" xr3:uid="{3481A0A0-E298-445D-B241-7269A9C35D99}" name="Bleu 3 WMT"/>
+    <tableColumn id="2" xr3:uid="{789937A5-F7BF-456C-BE1D-7E568A5D9F46}" name="F1-Score" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{2E15D060-2087-4AFB-BE53-A0B75B5341E3}" name="Bleu 1 Translation" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{13B94D85-B122-42DE-961E-FAB862A3218E}" name="Bleu 3 Translations" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{E4AE71E0-F573-41F9-9ABB-8DEAACAC1CEB}" name="Bleu 1 WMT" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{3481A0A0-E298-445D-B241-7269A9C35D99}" name="Bleu 3 WMT" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -433,7 +450,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -442,7 +459,8 @@
     <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -469,20 +487,80 @@
       <c r="A2" t="s">
         <v>6</v>
       </c>
+      <c r="B2" s="1">
+        <v>0.34182366120735902</v>
+      </c>
+      <c r="C2" s="1">
+        <v>58.5817266068387</v>
+      </c>
+      <c r="D2" s="1">
+        <v>54.371892507957298</v>
+      </c>
+      <c r="E2" s="1">
+        <v>19.561407387726302</v>
+      </c>
+      <c r="F2" s="1">
+        <v>19.511078188773201</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
+      <c r="B3" s="1">
+        <v>0.28147622203288197</v>
+      </c>
+      <c r="C3" s="1">
+        <v>57.2424796521845</v>
+      </c>
+      <c r="D3" s="1">
+        <v>48.4727810559828</v>
+      </c>
+      <c r="E3" s="1">
+        <v>18.353755153828999</v>
+      </c>
+      <c r="F3" s="1">
+        <v>17.279835598492699</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
+      <c r="B4" s="1">
+        <v>0.25959481207990098</v>
+      </c>
+      <c r="C4" s="1">
+        <v>48.467653289467698</v>
+      </c>
+      <c r="D4" s="1">
+        <v>49.078043567809303</v>
+      </c>
+      <c r="E4" s="1">
+        <v>14.607165790417501</v>
+      </c>
+      <c r="F4" s="1">
+        <v>14.5870804303157</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.283959733661522</v>
+      </c>
+      <c r="C5" s="1">
+        <v>53.443229036504299</v>
+      </c>
+      <c r="D5" s="1">
+        <v>52.246567667076</v>
+      </c>
+      <c r="E5" s="1">
+        <v>15.509973904627</v>
+      </c>
+      <c r="F5" s="1">
+        <v>15.538847615420099</v>
       </c>
     </row>
   </sheetData>

--- a/notebook/results/Model-v1-Results.xlsx
+++ b/notebook/results/Model-v1-Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HAW\Bachelorarbeit\TranslationT5\notebook\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{564FE108-9358-4C24-8304-A08793979589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC856684-BE08-4BE0-B174-23B912084895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4272" yWindow="276" windowWidth="17640" windowHeight="8904" xr2:uid="{5C25365D-9598-4416-8DEF-A2E75805290F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Decoding Method</t>
   </si>
@@ -64,16 +64,34 @@
   </si>
   <si>
     <t>Top-P Sampling</t>
+  </si>
+  <si>
+    <t>ROUGE-L</t>
+  </si>
+  <si>
+    <t>ROUGE-W</t>
+  </si>
+  <si>
+    <t>ROUGE-S</t>
+  </si>
+  <si>
+    <t>ROUGE-SU</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -106,7 +124,19 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="9">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
@@ -136,15 +166,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{13C59120-9C43-48DC-A90E-0F120D2F55A7}" name="Tabelle1" displayName="Tabelle1" ref="A1:F5" totalsRowShown="0">
-  <autoFilter ref="A1:F5" xr:uid="{3097FC38-72C4-4A6B-9C80-5483D098EB6E}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{13C59120-9C43-48DC-A90E-0F120D2F55A7}" name="Tabelle1" displayName="Tabelle1" ref="A1:J5" totalsRowShown="0">
+  <autoFilter ref="A1:J5" xr:uid="{3097FC38-72C4-4A6B-9C80-5483D098EB6E}"/>
+  <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{E2818F8C-4597-484B-9D19-1491B90AA33A}" name="Decoding Method"/>
-    <tableColumn id="2" xr3:uid="{789937A5-F7BF-456C-BE1D-7E568A5D9F46}" name="F1-Score" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{2E15D060-2087-4AFB-BE53-A0B75B5341E3}" name="Bleu 1 Translation" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{13B94D85-B122-42DE-961E-FAB862A3218E}" name="Bleu 3 Translations" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{E4AE71E0-F573-41F9-9ABB-8DEAACAC1CEB}" name="Bleu 1 WMT" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{3481A0A0-E298-445D-B241-7269A9C35D99}" name="Bleu 3 WMT" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{789937A5-F7BF-456C-BE1D-7E568A5D9F46}" name="F1-Score" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{2E15D060-2087-4AFB-BE53-A0B75B5341E3}" name="Bleu 1 Translation" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{13B94D85-B122-42DE-961E-FAB862A3218E}" name="Bleu 3 Translations" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{E4AE71E0-F573-41F9-9ABB-8DEAACAC1CEB}" name="Bleu 1 WMT" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{3481A0A0-E298-445D-B241-7269A9C35D99}" name="Bleu 3 WMT" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{B498A579-EF1D-4C61-9FDD-0CBA1B8C5600}" name="ROUGE-L" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{94F54037-BEC9-47D7-8A28-084986324537}" name="ROUGE-W" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{F6B746D8-39C2-493B-AE8E-FE9376B2A08A}" name="ROUGE-S" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{5C3B9593-6ADF-4294-9D2F-C27AF40D0D34}" name="ROUGE-SU" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -447,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B949EC18-A32E-4E5F-A14E-B3189F3056C1}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -459,11 +493,10 @@
     <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -482,8 +515,20 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -502,8 +547,20 @@
       <c r="F2" s="1">
         <v>19.511078188773201</v>
       </c>
+      <c r="G2" s="1">
+        <v>0.64075828680539804</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.50021044875781495</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0.42933686927746201</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.49019153730602399</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -522,8 +579,20 @@
       <c r="F3" s="1">
         <v>17.279835598492699</v>
       </c>
+      <c r="G3" s="1">
+        <v>0.58502655667393499</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.45742192205550197</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.37186004706977499</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.43170605037785198</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -542,8 +611,20 @@
       <c r="F4" s="1">
         <v>14.5870804303157</v>
       </c>
+      <c r="G4" s="1">
+        <v>0.60889501404042401</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.47632607448250402</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.40043405816998101</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.46108995353646198</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -562,8 +643,21 @@
       <c r="F5" s="1">
         <v>15.538847615420099</v>
       </c>
+      <c r="G5" s="1">
+        <v>0.63026567947001799</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.492836870284456</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.42355316518376601</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.483226123464573</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
